--- a/VersionRecords/Version 5.3.0 20170221/版本Bug和特性计划及评审表v5.3.0_捷豹组.xlsx
+++ b/VersionRecords/Version 5.3.0 20170221/版本Bug和特性计划及评审表v5.3.0_捷豹组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t>No</t>
   </si>
@@ -305,6 +305,26 @@
   </si>
   <si>
     <t>能</t>
+  </si>
+  <si>
+    <t>房东发起蘑菇宝租约-租客确认（预览合同）--租期显示错误</t>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>王辉</t>
+    <rPh sb="0" eb="1">
+      <t>w'h</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云飞</t>
+    <rPh sb="0" eb="1">
+      <t>w'y'f</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -687,7 +707,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +740,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,7 +1024,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="20">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="8"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -1017,6 +1043,8 @@
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1442,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1699,24 +1727,44 @@
       <c r="B5" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
       <c r="H5" s="54"/>
       <c r="I5" s="53"/>
       <c r="J5" s="54"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="62"/>
+      <c r="L5" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>82</v>
+      </c>
       <c r="Q5" s="54"/>
-      <c r="R5" s="62"/>
+      <c r="R5" s="62" t="s">
+        <v>83</v>
+      </c>
       <c r="S5" s="77"/>
-      <c r="T5" s="71"/>
+      <c r="T5" s="71">
+        <v>9150</v>
+      </c>
       <c r="U5" s="71"/>
       <c r="V5" s="66"/>
       <c r="W5" s="70"/>
